--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="227">
   <si>
     <t>TCID</t>
   </si>
@@ -723,13 +723,7 @@
     <t>Mouse Click on stock categories</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -737,7 +731,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,235 +783,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="12"/>
+      <color indexed="10"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -1087,7 +853,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1099,120 +865,6 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1567,9 +1219,7 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="20">
-        <v>227</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1581,9 +1231,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="42">
-        <v>227</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1595,9 +1243,7 @@
       <c r="C4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D4" t="s" s="43">
-        <v>228</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1609,9 +1255,7 @@
       <c r="C5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D5" t="s" s="44">
-        <v>228</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1623,9 +1267,7 @@
       <c r="C6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D6" t="s" s="45">
-        <v>228</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1637,9 +1279,7 @@
       <c r="C7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D7" t="s" s="46">
-        <v>228</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1651,9 +1291,7 @@
       <c r="C8" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D8" t="s" s="47">
-        <v>228</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row ht="18" r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -1665,9 +1303,7 @@
       <c r="C9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D9" t="s" s="48">
-        <v>228</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1761,9 +1397,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="11">
-        <v>226</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1781,9 +1415,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>226</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1801,9 +1433,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="13">
-        <v>226</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1821,9 +1451,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="14">
-        <v>226</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1841,9 +1469,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="15">
-        <v>226</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1861,9 +1487,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="16">
-        <v>226</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -1881,9 +1505,7 @@
       <c r="E9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F9" t="s" s="17">
-        <v>226</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -1901,9 +1523,7 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="18">
-        <v>226</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -1921,9 +1541,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="19">
-        <v>226</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1984,9 +1602,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="21">
-        <v>226</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2004,9 +1620,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="22">
-        <v>226</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2024,9 +1638,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="23">
-        <v>226</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2044,9 +1656,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="24">
-        <v>226</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -2064,9 +1674,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="25">
-        <v>226</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -2084,9 +1692,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="26">
-        <v>226</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2104,9 +1710,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="27">
-        <v>226</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2124,9 +1728,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="28">
-        <v>226</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -2144,9 +1746,7 @@
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="29">
-        <v>226</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -2164,9 +1764,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" t="s" s="30">
-        <v>226</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -2184,9 +1782,7 @@
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="31">
-        <v>226</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -2204,9 +1800,7 @@
       <c r="E13" s="8">
         <v>10</v>
       </c>
-      <c r="F13" t="s" s="32">
-        <v>226</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -2224,9 +1818,7 @@
       <c r="E14" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F14" t="s" s="33">
-        <v>226</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -2244,9 +1836,7 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="34">
-        <v>226</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -2264,9 +1854,7 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" t="s" s="35">
-        <v>226</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -2284,9 +1872,7 @@
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="36">
-        <v>226</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -2304,9 +1890,7 @@
       <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="37">
-        <v>226</v>
-      </c>
+      <c r="F18" s="3"/>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -2324,9 +1908,7 @@
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="38">
-        <v>226</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -2344,9 +1926,7 @@
       <c r="E20" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F20" t="s" s="39">
-        <v>226</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -2364,9 +1944,7 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="40">
-        <v>226</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -2384,9 +1962,7 @@
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="41">
-        <v>226</v>
-      </c>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas\git\Stock_Hybrid\StockAccounting_ERP\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas\eclipse-workspace\StockAccounting_ERP\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DE72B390-E48C-4686-B655-F3649C871271}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{995952BF-F334-4779-A0E4-E7F373C8945A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="8880" windowWidth="17280" xWindow="3732" xr2:uid="{2E45A967-731C-4281-8E77-DB78433363FE}" yWindow="2808"/>
+    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{2E45A967-731C-4281-8E77-DB78433363FE}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="229">
   <si>
     <t>TCID</t>
   </si>
@@ -639,9 +639,6 @@
     <t>Dashboard « Stock Accounting</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Wait for Add button</t>
   </si>
   <si>
@@ -723,7 +720,16 @@
     <t>Mouse Click on stock categories</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="165" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,7 +789,949 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
       <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -853,7 +1801,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -865,6 +1813,477 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +2604,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,7 +2638,9 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" t="s" s="20">
+        <v>226</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1231,7 +2652,9 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" t="s" s="42">
+        <v>226</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1241,9 +2664,11 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="72">
+        <v>226</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1253,9 +2678,11 @@
         <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="88">
+        <v>228</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1265,9 +2692,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="118">
+        <v>226</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1277,33 +2706,39 @@
         <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="133">
+        <v>228</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="145">
+        <v>228</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="167">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1378,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1397,7 +2832,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="11">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1415,7 +2852,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="12">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1433,7 +2872,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="13">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1451,7 +2892,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="14">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1469,7 +2912,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="15">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1487,7 +2932,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="16">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -1505,7 +2952,9 @@
       <c r="E9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="17">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -1523,7 +2972,9 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="18">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -1541,7 +2992,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="19">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1602,7 +3055,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="21">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1620,7 +3075,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="22">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1638,7 +3095,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="23">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1656,7 +3115,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="24">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1674,7 +3135,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="25">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1692,7 +3155,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="26">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1710,7 +3175,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="27">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -1728,11 +3195,13 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="28">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -1746,7 +3215,9 @@
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="29">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -1764,7 +3235,9 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="30">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1782,7 +3255,9 @@
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="31">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1800,7 +3275,9 @@
       <c r="E13" s="8">
         <v>10</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" t="s" s="32">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1816,9 +3293,11 @@
         <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="F14" t="s" s="33">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -1836,7 +3315,9 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s" s="34">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1854,7 +3335,9 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" t="s" s="35">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -1872,7 +3355,9 @@
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" t="s" s="36">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -1890,7 +3375,9 @@
       <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" t="s" s="37">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -1908,7 +3395,9 @@
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" t="s" s="38">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -1924,9 +3413,11 @@
         <v>169</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="F20" t="s" s="39">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -1944,7 +3435,9 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" t="s" s="40">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -1962,7 +3455,9 @@
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" t="s" s="41">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2023,7 +3518,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="43">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2041,7 +3538,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="44">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2059,7 +3558,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="45">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2077,7 +3578,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="46">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -2095,7 +3598,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="47">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -2113,7 +3618,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="48">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2131,7 +3638,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="49">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2149,7 +3658,9 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="50">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -2167,7 +3678,9 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="51">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -2185,7 +3698,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="52">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -2203,7 +3718,9 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="53">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -2218,10 +3735,12 @@
       <c r="D13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="54">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -2239,7 +3758,9 @@
       <c r="E14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" t="s" s="55">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -2257,7 +3778,9 @@
       <c r="E15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s" s="56">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -2275,7 +3798,9 @@
       <c r="E16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" t="s" s="57">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -2293,7 +3818,9 @@
       <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" t="s" s="58">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -2311,7 +3838,9 @@
       <c r="E18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" t="s" s="59">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -2329,7 +3858,9 @@
       <c r="E19" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" t="s" s="60">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -2347,7 +3878,9 @@
       <c r="E20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" t="s" s="61">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -2365,7 +3898,9 @@
       <c r="E21" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" t="s" s="62">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -2383,7 +3918,9 @@
       <c r="E22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" t="s" s="63">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -2401,7 +3938,9 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" t="s" s="64">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -2419,7 +3958,9 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" t="s" s="65">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -2437,7 +3978,9 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" t="s" s="66">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -2455,7 +3998,9 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" t="s" s="67">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -2473,7 +4018,9 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" t="s" s="68">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -2486,12 +4033,14 @@
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" t="s" s="69">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -2509,7 +4058,9 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" t="s" s="70">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -2527,7 +4078,9 @@
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" t="s" s="71">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2591,7 +4144,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="73">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2609,7 +4164,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="74">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2627,7 +4184,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="75">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2645,7 +4204,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="76">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -2663,7 +4224,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="77">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -2681,7 +4244,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="78">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2699,7 +4264,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="79">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2717,7 +4284,9 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="80">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -2735,7 +4304,9 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="81">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -2753,7 +4324,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="82">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -2771,7 +4344,9 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="83">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -2789,7 +4364,9 @@
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" t="s" s="84">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -2807,7 +4384,9 @@
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" t="s" s="85">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -2825,7 +4404,9 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s" s="86">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -2841,9 +4422,11 @@
         <v>144</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="F16" t="s" s="87">
+        <v>227</v>
+      </c>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -2877,7 +4460,7 @@
         <v>183</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -2895,7 +4478,7 @@
         <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -3054,7 +4637,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -3156,7 +4739,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="89">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -3174,7 +4759,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="90">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -3192,7 +4779,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="91">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3210,7 +4799,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="92">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -3228,7 +4819,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="93">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -3246,7 +4839,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="94">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -3264,7 +4859,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="95">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -3282,7 +4879,9 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="96">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -3300,7 +4899,9 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="97">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -3318,7 +4919,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="98">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3336,7 +4939,9 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="99">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -3351,10 +4956,12 @@
       <c r="D13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="100">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -3372,7 +4979,9 @@
       <c r="E14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" t="s" s="101">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -3390,7 +4999,9 @@
       <c r="E15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s" s="102">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -3408,7 +5019,9 @@
       <c r="E16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" t="s" s="103">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -3426,7 +5039,9 @@
       <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" t="s" s="104">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -3444,7 +5059,9 @@
       <c r="E18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" t="s" s="105">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -3462,7 +5079,9 @@
       <c r="E19" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" t="s" s="106">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -3480,7 +5099,9 @@
       <c r="E20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" t="s" s="107">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -3498,7 +5119,9 @@
       <c r="E21" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" t="s" s="108">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -3516,7 +5139,9 @@
       <c r="E22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" t="s" s="109">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -3534,7 +5159,9 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" t="s" s="110">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -3552,7 +5179,9 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" t="s" s="111">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -3570,7 +5199,9 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" t="s" s="112">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -3588,7 +5219,9 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" t="s" s="113">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -3606,7 +5239,9 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" t="s" s="114">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -3619,12 +5254,14 @@
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" t="s" s="115">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -3642,7 +5279,9 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" t="s" s="116">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -3660,7 +5299,9 @@
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" t="s" s="117">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3724,7 +5365,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="119">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -3742,7 +5385,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="120">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -3760,7 +5405,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="121">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3778,7 +5425,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="122">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -3796,7 +5445,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="123">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -3814,7 +5465,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="124">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -3832,7 +5485,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="125">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -3850,7 +5505,9 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="126">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -3868,7 +5525,9 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="127">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -3886,7 +5545,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="128">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3904,7 +5565,9 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="129">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -3919,10 +5582,12 @@
       <c r="D13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="130">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -3940,7 +5605,9 @@
       <c r="E14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" t="s" s="131">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -3956,9 +5623,11 @@
         <v>165</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="F15" t="s" s="132">
+        <v>227</v>
+      </c>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -3974,7 +5643,7 @@
         <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -4088,7 +5757,7 @@
     </row>
     <row ht="18" r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -4115,7 +5784,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -4205,7 +5874,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -4307,7 +5976,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="134">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4325,7 +5996,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="135">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4343,7 +6016,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="136">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4361,7 +6036,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="137">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -4379,7 +6056,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="138">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -4397,7 +6076,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="139">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -4415,7 +6096,9 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" t="s" s="140">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4433,7 +6116,9 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="141">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -4451,7 +6136,9 @@
       <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="142">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -4469,7 +6156,9 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s" s="143">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4487,7 +6176,9 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" t="s" s="144">
+        <v>227</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -4800,7 +6491,9 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" t="s" s="146">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4818,7 +6511,9 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" t="s" s="147">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4836,7 +6531,9 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" t="s" s="148">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4854,7 +6551,9 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" t="s" s="149">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -4872,7 +6571,9 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" t="s" s="150">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -4890,7 +6591,9 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" t="s" s="151">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -4908,7 +6611,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s" s="152">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4926,7 +6631,9 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" t="s" s="153">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -4944,14 +6651,16 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" t="s" s="154">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -4960,13 +6669,15 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="F11" t="s" s="155">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -4975,16 +6686,18 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s" s="156">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -4993,16 +6706,18 @@
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s" s="157">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -5011,19 +6726,21 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" t="s" s="158">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -5034,11 +6751,13 @@
       <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" t="s" s="159">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -5047,12 +6766,14 @@
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" t="s" s="160">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -5070,7 +6791,9 @@
       <c r="E17" s="3">
         <v>10</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" t="s" s="161">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -5088,7 +6811,9 @@
       <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" t="s" s="162">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -5106,7 +6831,9 @@
       <c r="E19" s="3">
         <v>10</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" t="s" s="163">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -5124,7 +6851,9 @@
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" t="s" s="164">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -5142,7 +6871,9 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" t="s" s="165">
+        <v>225</v>
+      </c>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -5160,7 +6891,9 @@
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" t="s" s="166">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="228">
   <si>
     <t>TCID</t>
   </si>
@@ -727,9 +727,6 @@
   </si>
   <si>
     <t>fail</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -737,7 +734,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="165" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,775 +960,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
       <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -1801,7 +1030,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1900,390 +1129,6 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2652,9 +1497,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="42">
-        <v>226</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -2666,9 +1509,7 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="72">
-        <v>226</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -2680,9 +1521,7 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="88">
-        <v>228</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -2694,9 +1533,7 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s" s="118">
-        <v>226</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -2708,9 +1545,7 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="133">
-        <v>228</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2722,9 +1557,7 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s" s="145">
-        <v>228</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row ht="18" r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2736,9 +1569,7 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="167">
-        <v>226</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3416,7 +2247,7 @@
         <v>221</v>
       </c>
       <c r="F20" t="s" s="39">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -3435,9 +2266,7 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="40">
-        <v>225</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -3455,9 +2284,7 @@
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="41">
-        <v>225</v>
-      </c>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3518,9 +2345,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="43">
-        <v>225</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -3538,9 +2363,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="44">
-        <v>225</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -3558,9 +2381,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="45">
-        <v>225</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -3578,9 +2399,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="46">
-        <v>225</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -3598,9 +2417,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="47">
-        <v>225</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -3618,9 +2435,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="48">
-        <v>225</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -3638,9 +2453,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="49">
-        <v>225</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -3658,9 +2471,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="50">
-        <v>225</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -3678,9 +2489,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="51">
-        <v>225</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -3698,9 +2507,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="52">
-        <v>225</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3718,9 +2525,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="53">
-        <v>225</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -3735,12 +2540,10 @@
       <c r="D13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s" s="54">
-        <v>225</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -3758,9 +2561,7 @@
       <c r="E14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F14" t="s" s="55">
-        <v>225</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -3778,9 +2579,7 @@
       <c r="E15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="s" s="56">
-        <v>225</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -3798,9 +2597,7 @@
       <c r="E16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F16" t="s" s="57">
-        <v>225</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -3818,9 +2615,7 @@
       <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F17" t="s" s="58">
-        <v>225</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -3838,9 +2633,7 @@
       <c r="E18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s" s="59">
-        <v>225</v>
-      </c>
+      <c r="F18" s="3"/>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -3858,9 +2651,7 @@
       <c r="E19" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F19" t="s" s="60">
-        <v>225</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -3878,9 +2669,7 @@
       <c r="E20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F20" t="s" s="61">
-        <v>225</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -3898,9 +2687,7 @@
       <c r="E21" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F21" t="s" s="62">
-        <v>225</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -3918,9 +2705,7 @@
       <c r="E22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F22" t="s" s="63">
-        <v>225</v>
-      </c>
+      <c r="F22" s="3"/>
     </row>
     <row ht="18" r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -3938,9 +2723,7 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="64">
-        <v>225</v>
-      </c>
+      <c r="F23" s="3"/>
     </row>
     <row ht="18" r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -3958,9 +2741,7 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="65">
-        <v>225</v>
-      </c>
+      <c r="F24" s="3"/>
     </row>
     <row ht="18" r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -3978,9 +2759,7 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="66">
-        <v>225</v>
-      </c>
+      <c r="F25" s="3"/>
     </row>
     <row ht="18" r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -3998,9 +2777,7 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="67">
-        <v>225</v>
-      </c>
+      <c r="F26" s="3"/>
     </row>
     <row ht="18" r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -4018,9 +2795,7 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="68">
-        <v>225</v>
-      </c>
+      <c r="F27" s="3"/>
     </row>
     <row ht="18" r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -4038,9 +2813,7 @@
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="69">
-        <v>225</v>
-      </c>
+      <c r="F28" s="3"/>
     </row>
     <row ht="18" r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -4058,9 +2831,7 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="70">
-        <v>225</v>
-      </c>
+      <c r="F29" s="3"/>
     </row>
     <row ht="18" r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -4078,9 +2849,7 @@
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="71">
-        <v>225</v>
-      </c>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4144,9 +2913,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="73">
-        <v>225</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4164,9 +2931,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="74">
-        <v>225</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4184,9 +2949,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="75">
-        <v>225</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4204,9 +2967,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="76">
-        <v>225</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -4224,9 +2985,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="77">
-        <v>225</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -4244,9 +3003,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="78">
-        <v>225</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -4264,9 +3021,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="79">
-        <v>225</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4284,9 +3039,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="80">
-        <v>225</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -4304,9 +3057,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="81">
-        <v>225</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -4324,9 +3075,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="82">
-        <v>225</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4344,9 +3093,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="83">
-        <v>225</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -4364,9 +3111,7 @@
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="84">
-        <v>225</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -4384,9 +3129,7 @@
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="85">
-        <v>225</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -4404,9 +3147,7 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="86">
-        <v>225</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -4424,9 +3165,7 @@
       <c r="E16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F16" t="s" s="87">
-        <v>227</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -4739,9 +3478,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="89">
-        <v>225</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4759,9 +3496,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="90">
-        <v>225</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4779,9 +3514,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="91">
-        <v>225</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -4799,9 +3532,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="92">
-        <v>225</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -4819,9 +3550,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="93">
-        <v>225</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -4839,9 +3568,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="94">
-        <v>225</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -4859,9 +3586,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="95">
-        <v>225</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -4879,9 +3604,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="96">
-        <v>225</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -4899,9 +3622,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="97">
-        <v>225</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -4919,9 +3640,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="98">
-        <v>225</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4939,9 +3658,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="99">
-        <v>225</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -4956,12 +3673,10 @@
       <c r="D13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s" s="100">
-        <v>225</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -4979,9 +3694,7 @@
       <c r="E14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F14" t="s" s="101">
-        <v>225</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -4999,9 +3712,7 @@
       <c r="E15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="s" s="102">
-        <v>225</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -5019,9 +3730,7 @@
       <c r="E16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F16" t="s" s="103">
-        <v>225</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -5039,9 +3748,7 @@
       <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F17" t="s" s="104">
-        <v>225</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -5059,9 +3766,7 @@
       <c r="E18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s" s="105">
-        <v>225</v>
-      </c>
+      <c r="F18" s="3"/>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -5079,9 +3784,7 @@
       <c r="E19" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F19" t="s" s="106">
-        <v>225</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -5099,9 +3802,7 @@
       <c r="E20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F20" t="s" s="107">
-        <v>225</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -5119,9 +3820,7 @@
       <c r="E21" s="3">
         <v>9700337753</v>
       </c>
-      <c r="F21" t="s" s="108">
-        <v>225</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -5139,9 +3838,7 @@
       <c r="E22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F22" t="s" s="109">
-        <v>225</v>
-      </c>
+      <c r="F22" s="3"/>
     </row>
     <row ht="18" r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -5159,9 +3856,7 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="110">
-        <v>225</v>
-      </c>
+      <c r="F23" s="3"/>
     </row>
     <row ht="18" r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -5179,9 +3874,7 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="111">
-        <v>225</v>
-      </c>
+      <c r="F24" s="3"/>
     </row>
     <row ht="18" r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -5199,9 +3892,7 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="112">
-        <v>225</v>
-      </c>
+      <c r="F25" s="3"/>
     </row>
     <row ht="18" r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -5219,9 +3910,7 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="113">
-        <v>225</v>
-      </c>
+      <c r="F26" s="3"/>
     </row>
     <row ht="18" r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -5239,9 +3928,7 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="114">
-        <v>225</v>
-      </c>
+      <c r="F27" s="3"/>
     </row>
     <row ht="18" r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -5259,9 +3946,7 @@
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="115">
-        <v>225</v>
-      </c>
+      <c r="F28" s="3"/>
     </row>
     <row ht="18" r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
@@ -5279,9 +3964,7 @@
       <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="116">
-        <v>225</v>
-      </c>
+      <c r="F29" s="3"/>
     </row>
     <row ht="18" r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -5299,9 +3982,7 @@
       <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="117">
-        <v>225</v>
-      </c>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5365,9 +4046,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="119">
-        <v>225</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -5385,9 +4064,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="120">
-        <v>225</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -5405,9 +4082,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="121">
-        <v>225</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -5425,9 +4100,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="122">
-        <v>225</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -5445,9 +4118,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="123">
-        <v>225</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -5465,9 +4136,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="124">
-        <v>225</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -5485,9 +4154,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="125">
-        <v>225</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -5505,9 +4172,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="126">
-        <v>225</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -5525,9 +4190,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="127">
-        <v>225</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -5545,9 +4208,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="128">
-        <v>225</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5565,9 +4226,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="129">
-        <v>225</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -5582,12 +4241,10 @@
       <c r="D13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s" s="130">
-        <v>225</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -5605,9 +4262,7 @@
       <c r="E14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F14" t="s" s="131">
-        <v>225</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -5625,9 +4280,7 @@
       <c r="E15" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F15" t="s" s="132">
-        <v>227</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -5976,9 +4629,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="134">
-        <v>225</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -5996,9 +4647,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="135">
-        <v>225</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -6016,9 +4665,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="136">
-        <v>225</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -6036,9 +4683,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="137">
-        <v>225</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -6056,9 +4701,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="138">
-        <v>225</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -6076,9 +4719,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="139">
-        <v>225</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -6096,9 +4737,7 @@
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s" s="140">
-        <v>225</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -6116,9 +4755,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="141">
-        <v>225</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -6136,9 +4773,7 @@
       <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s" s="142">
-        <v>225</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -6156,9 +4791,7 @@
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="143">
-        <v>225</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -6176,9 +4809,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="144">
-        <v>227</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -6491,9 +5122,7 @@
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="146">
-        <v>225</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row ht="18" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -6511,9 +5140,7 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="147">
-        <v>225</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row ht="18" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -6531,9 +5158,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="148">
-        <v>225</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
     <row ht="18" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -6551,9 +5176,7 @@
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="149">
-        <v>225</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row ht="18" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -6571,9 +5194,7 @@
       <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="150">
-        <v>225</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row ht="18" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -6591,9 +5212,7 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="151">
-        <v>225</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row ht="18" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -6611,9 +5230,7 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="152">
-        <v>225</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row ht="18" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -6631,9 +5248,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="153">
-        <v>225</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row ht="18" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -6651,9 +5266,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="154">
-        <v>225</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row ht="18" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -6671,9 +5284,7 @@
       <c r="E11" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F11" t="s" s="155">
-        <v>225</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row ht="18" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -6691,9 +5302,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="156">
-        <v>225</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row ht="18" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -6711,9 +5320,7 @@
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="157">
-        <v>225</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row ht="18" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -6731,9 +5338,7 @@
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="158">
-        <v>225</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row ht="18" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -6751,9 +5356,7 @@
       <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="159">
-        <v>225</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row ht="18" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -6771,9 +5374,7 @@
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="160">
-        <v>225</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row ht="18" r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -6791,9 +5392,7 @@
       <c r="E17" s="3">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="161">
-        <v>225</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row ht="18" r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -6811,9 +5410,7 @@
       <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="162">
-        <v>225</v>
-      </c>
+      <c r="F18" s="3"/>
     </row>
     <row ht="18" r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -6831,9 +5428,7 @@
       <c r="E19" s="3">
         <v>10</v>
       </c>
-      <c r="F19" t="s" s="163">
-        <v>225</v>
-      </c>
+      <c r="F19" s="3"/>
     </row>
     <row ht="18" r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -6851,9 +5446,7 @@
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="164">
-        <v>225</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row ht="18" r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -6871,9 +5464,7 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="165">
-        <v>225</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row ht="18" r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -6891,9 +5482,7 @@
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="166">
-        <v>225</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
